--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_INVINV_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_INVINV_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>-0.03340460336359562</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>-0.02388883075801395</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>-0.0203220390493004</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>-0.02429875049146742</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>-0.02443410403539463</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>-0.02311785680070618</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>-0.02340993730170112</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>-0.02375967971164842</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>-0.02357633880410836</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>-0.02351037475775375</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>-1.354049169846527</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>1.004842033390642</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>-0.6740116887969869</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>0.5196119671508181</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>-0.3289748716682879</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>0.2743117583272802</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>-0.1545832836341255</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>0.1503314050918559</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>-0.06644183368791942</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>0.0876689349527519</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>-0.01463910901197702</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>-0.01507349148577595</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>-0.03210011224588941</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>-0.0308102898139184</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>-0.02000370766222496</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>-0.02571004060639635</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>-0.01685103874253485</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>-0.02446946006981703</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>-0.005696621822739279</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>-0.009107923752385619</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>-0.009797892482433932</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>-0.01069166209747465</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>-0.01447030843376195</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>-0.01214389750552748</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>-0.01637693112903568</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>-0.00566765910846115</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>-0.02720139480095603</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>-0.03390377705444395</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>-0.03181296049532004</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>-0.03581648909795633</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>-0.03691727320342111</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>-0.03348889414377364</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>-0.03108471586493347</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>-0.02932747707345157</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>-0.03696363614464238</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>-0.03659338555803385</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>-0.02568636796714895</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>-0.02906660104375737</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>-0.03111008199513411</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>-0.02915555894356547</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>-0.0320010918266424</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>-0.04508763178544338</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>-0.03793218312920717</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>-0.02973338128217176</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>-0.001404511834432531</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>-0.031272084242327</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>-0.04198752285329899</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>-0.05088303036438469</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>-0.03806863508489007</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>-0.03380790183202858</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>-0.03677982130513462</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>-0.0958837000482107</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_INVINV_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_INVINV_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>-0.03340460336359562</v>
+        <v>-0.1406608243777576</v>
       </c>
       <c r="AS2">
-        <v>-0.1832684026196001</v>
+        <v>0.100786433163774</v>
       </c>
       <c r="AT2">
-        <v>0.09936575281836432</v>
+        <v>-0.1470890842279522</v>
       </c>
       <c r="AU2">
-        <v>-0.004546923458420275</v>
+        <v>0.1715855691630325</v>
       </c>
       <c r="AV2">
-        <v>-0.03696844328440692</v>
+        <v>0.1911553771161312</v>
       </c>
       <c r="AW2">
-        <v>-0.1768638039877852</v>
+        <v>-0.08022259161486719</v>
       </c>
       <c r="AX2">
-        <v>-0.2822096778751681</v>
+        <v>-0.3154872179965899</v>
       </c>
       <c r="AY2">
-        <v>-0.2493172945413686</v>
+        <v>-0.37563386817659</v>
       </c>
       <c r="AZ2">
-        <v>0.3326063340804278</v>
+        <v>-0.007479263163498756</v>
       </c>
       <c r="BA2">
-        <v>-0.161226410811017</v>
+        <v>0.04671359783540194</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>-0.02388883075801395</v>
+        <v>0.0236656033257681</v>
       </c>
       <c r="AS3">
-        <v>-0.00374115555535621</v>
+        <v>-0.2145363258946815</v>
       </c>
       <c r="AT3">
-        <v>-0.05223422598338177</v>
+        <v>0.1302311701533707</v>
       </c>
       <c r="AU3">
-        <v>-0.03675340365231727</v>
+        <v>-0.05845964792220767</v>
       </c>
       <c r="AV3">
-        <v>-0.02841000720473891</v>
+        <v>-0.085634867014119</v>
       </c>
       <c r="AW3">
-        <v>0.00420546911993263</v>
+        <v>-0.1578195895495378</v>
       </c>
       <c r="AX3">
-        <v>0.03999695966618477</v>
+        <v>-0.2268179819700687</v>
       </c>
       <c r="AY3">
-        <v>-0.08212390674436575</v>
+        <v>-0.1986260635473235</v>
       </c>
       <c r="AZ3">
-        <v>-0.06557087603733683</v>
+        <v>0.3281254779075455</v>
       </c>
       <c r="BA3">
-        <v>0.02626493040819354</v>
+        <v>-0.1561314660487535</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>-0.0203220390493004</v>
+        <v>0.022808088402659</v>
       </c>
       <c r="AS4">
-        <v>0.01947931766996934</v>
+        <v>-0.02135406546126113</v>
       </c>
       <c r="AT4">
-        <v>-0.05146153628560422</v>
+        <v>-0.02659497133803108</v>
       </c>
       <c r="AU4">
-        <v>-0.02642476914539064</v>
+        <v>-0.08349855235186215</v>
       </c>
       <c r="AV4">
-        <v>-0.01965456204274917</v>
+        <v>-0.09627906030867385</v>
       </c>
       <c r="AW4">
-        <v>0.04591711456951489</v>
+        <v>0.02845832581881534</v>
       </c>
       <c r="AX4">
-        <v>0.09476369949832648</v>
+        <v>0.1649447625093316</v>
       </c>
       <c r="AY4">
-        <v>0.1043002604610068</v>
+        <v>0.1604370303980045</v>
       </c>
       <c r="AZ4">
-        <v>-0.1184782261500207</v>
+        <v>-0.06951637308132015</v>
       </c>
       <c r="BA4">
-        <v>0.05675781007361306</v>
+        <v>0.03072172394820536</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>-0.02429875049146742</v>
+        <v>-0.02861383781479341</v>
       </c>
       <c r="AS5">
-        <v>-0.04638488922157161</v>
+        <v>0.02784671353399629</v>
       </c>
       <c r="AT5">
-        <v>-0.004279712600035457</v>
+        <v>-0.07069217907296647</v>
       </c>
       <c r="AU5">
-        <v>-0.018475421778123</v>
+        <v>-0.004097621534442319</v>
       </c>
       <c r="AV5">
-        <v>-0.02441650263362991</v>
+        <v>0.0003486772119304579</v>
       </c>
       <c r="AW5">
-        <v>-0.03035415023084582</v>
+        <v>0.01732431464982859</v>
       </c>
       <c r="AX5">
-        <v>-0.02719752251958586</v>
+        <v>0.04947379318571581</v>
       </c>
       <c r="AY5">
-        <v>0.0378242152091114</v>
+        <v>0.04830061598728011</v>
       </c>
       <c r="AZ5">
-        <v>0.04054514790524665</v>
+        <v>-0.1126667394120761</v>
       </c>
       <c r="BA5">
-        <v>-0.009924777126187743</v>
+        <v>0.05980389894427397</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>-0.02443410403539463</v>
+        <v>-0.01423908898054457</v>
       </c>
       <c r="AS6">
-        <v>-0.03669841911452847</v>
+        <v>-0.05152201228377164</v>
       </c>
       <c r="AT6">
-        <v>-0.0176623601961736</v>
+        <v>-0.008918606163630513</v>
       </c>
       <c r="AU6">
-        <v>-0.02410309360241812</v>
+        <v>-0.01718855658572024</v>
       </c>
       <c r="AV6">
-        <v>-0.02641315388590836</v>
+        <v>-0.01509014672065998</v>
       </c>
       <c r="AW6">
-        <v>-0.02826708736316874</v>
+        <v>-0.04638097768364526</v>
       </c>
       <c r="AX6">
-        <v>-0.0235900056786655</v>
+        <v>-0.07028266210327877</v>
       </c>
       <c r="AY6">
-        <v>-0.007997119678224668</v>
+        <v>-0.05262082029652802</v>
       </c>
       <c r="AZ6">
-        <v>0.02802976431545098</v>
+        <v>0.04289364561388963</v>
       </c>
       <c r="BA6">
-        <v>-0.006828468081192191</v>
+        <v>-0.006508259590151697</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>-0.02311785680070618</v>
+        <v>-0.002017287274968147</v>
       </c>
       <c r="AS7">
-        <v>-0.01734715070464835</v>
+        <v>-0.044736798156182</v>
       </c>
       <c r="AT7">
-        <v>-0.02868620774471301</v>
+        <v>-0.01212566576395684</v>
       </c>
       <c r="AU7">
-        <v>-0.02522375396250291</v>
+        <v>-0.03884277971459891</v>
       </c>
       <c r="AV7">
-        <v>-0.02436605357238061</v>
+        <v>-0.04504191774668338</v>
       </c>
       <c r="AW7">
-        <v>-0.0006389030463489001</v>
+        <v>-0.02922298250831565</v>
       </c>
       <c r="AX7">
-        <v>0.01806232377076252</v>
+        <v>-0.00246507095807497</v>
       </c>
       <c r="AY7">
-        <v>0.01551425727787895</v>
+        <v>-0.0006348459749519995</v>
       </c>
       <c r="AZ7">
-        <v>-0.02866355762159044</v>
+        <v>0.02723532364697859</v>
       </c>
       <c r="BA7">
-        <v>0.01417471096306536</v>
+        <v>-0.002914314149554297</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>-0.02340993730170112</v>
+        <v>-0.009888564199399727</v>
       </c>
       <c r="AS8">
-        <v>-0.02568528612890706</v>
+        <v>-0.02006041293507299</v>
       </c>
       <c r="AT8">
-        <v>-0.02143182553559243</v>
+        <v>-0.03074979964726661</v>
       </c>
       <c r="AU8">
-        <v>-0.02303505539065857</v>
+        <v>-0.02897106797450482</v>
       </c>
       <c r="AV8">
-        <v>-0.02411214096409488</v>
+        <v>-0.03385704849949254</v>
       </c>
       <c r="AW8">
-        <v>-0.007731812463237902</v>
+        <v>-0.01020517011477914</v>
       </c>
       <c r="AX8">
-        <v>0.009088070922333692</v>
+        <v>0.0272664097564083</v>
       </c>
       <c r="AY8">
-        <v>0.02603684445349861</v>
+        <v>0.02464929496834878</v>
       </c>
       <c r="AZ8">
-        <v>-0.01251503272655262</v>
+        <v>-0.027013620725811</v>
       </c>
       <c r="BA8">
-        <v>0.009084317856510267</v>
+        <v>0.01788583078468521</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>-0.02375967971164842</v>
+        <v>-0.0115714577654362</v>
       </c>
       <c r="AS9">
-        <v>-0.02991890560509818</v>
+        <v>-0.0295901277014535</v>
       </c>
       <c r="AT9">
-        <v>-0.0200057592447461</v>
+        <v>-0.02457005791438902</v>
       </c>
       <c r="AU9">
-        <v>-0.02325847477310742</v>
+        <v>-0.02473311773013382</v>
       </c>
       <c r="AV9">
-        <v>-0.02486550295596796</v>
+        <v>-0.02583606886049161</v>
       </c>
       <c r="AW9">
-        <v>-0.01628927427765288</v>
+        <v>-0.02022996390699931</v>
       </c>
       <c r="AX9">
-        <v>-0.003701656698807592</v>
+        <v>-0.003978077445998826</v>
       </c>
       <c r="AY9">
-        <v>0.01830760690027328</v>
+        <v>0.003786327779940737</v>
       </c>
       <c r="AZ9">
-        <v>0.005328734727959953</v>
+        <v>-0.0102171684780633</v>
       </c>
       <c r="BA9">
-        <v>0.003269690306833764</v>
+        <v>0.01263446204522371</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>-0.02357633880410836</v>
+        <v>-0.008635445044325219</v>
       </c>
       <c r="AS10">
-        <v>-0.02602576647383199</v>
+        <v>-0.03508224288062149</v>
       </c>
       <c r="AT10">
-        <v>-0.02267099595604196</v>
+        <v>-0.02040119451064939</v>
       </c>
       <c r="AU10">
-        <v>-0.02392949273071728</v>
+        <v>-0.0289775311151392</v>
       </c>
       <c r="AV10">
-        <v>-0.02479447385193859</v>
+        <v>-0.03123912148076069</v>
       </c>
       <c r="AW10">
-        <v>-0.01171682185774142</v>
+        <v>-0.02489052070549057</v>
       </c>
       <c r="AX10">
-        <v>0.001783696449917409</v>
+        <v>-0.008312844525119134</v>
       </c>
       <c r="AY10">
-        <v>0.01613151884740114</v>
+        <v>-0.001367947262063898</v>
       </c>
       <c r="AZ10">
-        <v>-0.00430134781753219</v>
+        <v>0.006399319939384338</v>
       </c>
       <c r="BA10">
-        <v>0.006050531174156349</v>
+        <v>0.006920169851751718</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>-0.02351037475775375</v>
+        <v>-0.008911772636133568</v>
       </c>
       <c r="AS11">
-        <v>-0.02564648222236417</v>
+        <v>-0.03026648867598069</v>
       </c>
       <c r="AT11">
-        <v>-0.02237452793168867</v>
+        <v>-0.02350984479296453</v>
       </c>
       <c r="AU11">
-        <v>-0.02367134455721135</v>
+        <v>-0.02919500143598848</v>
       </c>
       <c r="AV11">
-        <v>-0.02455169240883805</v>
+        <v>-0.03291182511181732</v>
       </c>
       <c r="AW11">
-        <v>-0.009609995668595293</v>
+        <v>-0.02037128280784999</v>
       </c>
       <c r="AX11">
-        <v>0.005204802065304675</v>
+        <v>0.004102089975922885</v>
       </c>
       <c r="AY11">
-        <v>0.01854009508926177</v>
+        <v>0.006253036325188952</v>
       </c>
       <c r="AZ11">
-        <v>-0.00899613124520263</v>
+        <v>-0.003175618524994913</v>
       </c>
       <c r="BA11">
-        <v>0.007393374543139403</v>
+        <v>0.009745738145422463</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>0.02158511650541478</v>
       </c>
       <c r="AG53">
-        <v>0.135279794427711</v>
+        <v>-0.1568461289965021</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>-0.05816819431753725</v>
       </c>
       <c r="AG54">
-        <v>-0.1185512449299394</v>
+        <v>0.03137212723048809</v>
       </c>
       <c r="AH54">
-        <v>-0.1794899914579581</v>
+        <v>0.66428567620281</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>-0.02322851008459323</v>
       </c>
       <c r="AG55">
-        <v>0.001695080592660513</v>
+        <v>-0.06051642072475285</v>
       </c>
       <c r="AH55">
-        <v>-0.1468068917847613</v>
+        <v>-0.3934526693206254</v>
       </c>
       <c r="AI55">
-        <v>0.119186251005643</v>
+        <v>-0.7400038549115902</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>-0.03855800597557799</v>
       </c>
       <c r="AG56">
-        <v>-0.05453365761467818</v>
+        <v>-0.0171547397092367</v>
       </c>
       <c r="AH56">
-        <v>-0.09518114387261807</v>
+        <v>0.07151979552997337</v>
       </c>
       <c r="AI56">
-        <v>-0.1191304543836832</v>
+        <v>0.254301520551817</v>
       </c>
       <c r="AJ56">
-        <v>-0.2180207541917982</v>
+        <v>-0.7036402473362195</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>-0.0318333692098498</v>
       </c>
       <c r="AG57">
-        <v>-0.02818504810489454</v>
+        <v>-0.03774898317530392</v>
       </c>
       <c r="AH57">
-        <v>-0.1013726453105319</v>
+        <v>-0.1302022799939972</v>
       </c>
       <c r="AI57">
-        <v>-0.02913845255527366</v>
+        <v>-0.1975851071045272</v>
       </c>
       <c r="AJ57">
-        <v>0.07343954507612935</v>
+        <v>-0.07935887843630096</v>
       </c>
       <c r="AK57">
-        <v>0.4362235237673495</v>
+        <v>-0.4133846901392021</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>-0.03478333521605374</v>
       </c>
       <c r="AG58">
-        <v>-0.04052770511779303</v>
+        <v>-0.02797998121569466</v>
       </c>
       <c r="AH58">
-        <v>-0.09475796569820638</v>
+        <v>-0.042544311111071</v>
       </c>
       <c r="AI58">
-        <v>-0.06338095103084621</v>
+        <v>0.00739442116283238</v>
       </c>
       <c r="AJ58">
-        <v>-0.011150036573398</v>
+        <v>0.09617636395140601</v>
       </c>
       <c r="AK58">
-        <v>0.6287802825695583</v>
+        <v>0.08492509573855342</v>
       </c>
       <c r="AL58">
-        <v>0.01604729701201978</v>
+        <v>0.1052762083474611</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>-0.03348924538620025</v>
       </c>
       <c r="AG59">
-        <v>-0.03474563000786354</v>
+        <v>-0.03261505749536273</v>
       </c>
       <c r="AH59">
-        <v>-0.09664852138351356</v>
+        <v>-0.08062812216906436</v>
       </c>
       <c r="AI59">
-        <v>-0.05032410546527918</v>
+        <v>-0.08557047347211598</v>
       </c>
       <c r="AJ59">
-        <v>-0.03417792570009025</v>
+        <v>-0.09331204871129906</v>
       </c>
       <c r="AK59">
-        <v>-0.3793836260330195</v>
+        <v>0.05375205152755019</v>
       </c>
       <c r="AL59">
-        <v>-0.01143889526123</v>
+        <v>-0.03193437248079872</v>
       </c>
       <c r="AM59">
-        <v>-0.128515016723297</v>
+        <v>-0.0401967383532657</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>-0.03405693626775731</v>
       </c>
       <c r="AG60">
-        <v>-0.03745429241382051</v>
+        <v>-0.03041596241975715</v>
       </c>
       <c r="AH60">
-        <v>-0.09559596824878883</v>
+        <v>-0.06408183658055418</v>
       </c>
       <c r="AI60">
-        <v>-0.05530560703153925</v>
+        <v>-0.04340848139831614</v>
       </c>
       <c r="AJ60">
-        <v>-0.01189679972654798</v>
+        <v>-0.05563732627793458</v>
       </c>
       <c r="AK60">
-        <v>-0.2011211878073505</v>
+        <v>-0.03761876259098382</v>
       </c>
       <c r="AL60">
-        <v>-0.01885833592451585</v>
+        <v>-0.03969426357148299</v>
       </c>
       <c r="AM60">
-        <v>-0.09436793407284984</v>
+        <v>-0.03027395586311088</v>
       </c>
       <c r="AN60">
-        <v>-0.4054528330916636</v>
+        <v>-0.3940706333348232</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>-0.03380790183202858</v>
       </c>
       <c r="AG61">
-        <v>-0.03618539454563379</v>
+        <v>-0.03145932406580663</v>
       </c>
       <c r="AH61">
-        <v>-0.09599251107894607</v>
+        <v>-0.07127068359181632</v>
       </c>
       <c r="AI61">
-        <v>-0.05340474631757604</v>
+        <v>-0.06253001437325653</v>
       </c>
       <c r="AJ61">
-        <v>-0.01519092859554667</v>
+        <v>-0.0327585202444088</v>
       </c>
       <c r="AK61">
-        <v>0.1266101101429726</v>
+        <v>-0.006819133915015053</v>
       </c>
       <c r="AL61">
-        <v>-0.01043215302651604</v>
+        <v>-0.008812028899840445</v>
       </c>
       <c r="AM61">
-        <v>0.02791263021133431</v>
+        <v>0.001809769164464752</v>
       </c>
       <c r="AN61">
-        <v>0.07230565273303692</v>
+        <v>-0.317114986183733</v>
       </c>
       <c r="AO61">
-        <v>-0.06612949400458104</v>
+        <v>-0.1088099768989334</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>-0.03677982130513462</v>
+        <v>-0.03096430147984511</v>
       </c>
       <c r="AH62">
-        <v>-0.09580714055556369</v>
+        <v>-0.06814735166807218</v>
       </c>
       <c r="AI62">
-        <v>-0.05413011512809401</v>
+        <v>-0.05385791506550396</v>
       </c>
       <c r="AJ62">
-        <v>-0.01799137528084691</v>
+        <v>-0.04887238048470234</v>
       </c>
       <c r="AK62">
-        <v>-0.02016687280277152</v>
+        <v>0.003192516861289445</v>
       </c>
       <c r="AL62">
-        <v>-0.01053636856855385</v>
+        <v>-0.01515611700544767</v>
       </c>
       <c r="AM62">
-        <v>-0.01083368567713852</v>
+        <v>-0.008541254473763384</v>
       </c>
       <c r="AN62">
-        <v>0.09366770670033742</v>
+        <v>0.1964420290032929</v>
       </c>
       <c r="AO62">
-        <v>-0.01051958786063142</v>
+        <v>-0.04665158770047793</v>
       </c>
       <c r="AP62">
-        <v>0.1423970070788567</v>
+        <v>-0.2525271085626162</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>-0.0958837000482107</v>
+        <v>-0.0695043428244675</v>
       </c>
       <c r="AI63">
-        <v>-0.05385331102479584</v>
+        <v>-0.05779093161614784</v>
       </c>
       <c r="AJ63">
-        <v>-0.01649959610019361</v>
+        <v>-0.04723067429999132</v>
       </c>
       <c r="AK63">
-        <v>-0.1047414789383145</v>
+        <v>-0.005663866116877891</v>
       </c>
       <c r="AL63">
-        <v>-0.01257694391572108</v>
+        <v>-0.02001693141650883</v>
       </c>
       <c r="AM63">
-        <v>-0.04229996799922067</v>
+        <v>-0.01389215334134111</v>
       </c>
       <c r="AN63">
-        <v>-0.06272237598277355</v>
+        <v>0.03809027171510437</v>
       </c>
       <c r="AO63">
-        <v>-0.02023098919030944</v>
+        <v>0.00486614157355001</v>
       </c>
       <c r="AP63">
-        <v>0.08370791838206702</v>
+        <v>0.06929232909158178</v>
       </c>
       <c r="AQ63">
-        <v>-0.07125262202772548</v>
+        <v>-0.1502457505331525</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_INVINV_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_INVINV_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>-1.354049169846527</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>1.004842033390642</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>0.2117738499806919</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>-0.1553990242875359</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0.3605222146516541</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>-0.2737249530742729</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>0.2192916909749139</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>-0.1690677648878158</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>0.2329052055690305</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>-0.1777337426689015</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>0.1879450106263302</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>-0.1221218856999958</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>0.03168713095221901</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>-0.03426758605480157</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>0.1052762083474611</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>-0.0401967383532657</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>-0.3940706333348232</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>-0.1088099768989334</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>-0.2525271085626162</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>-0.1502457505331525</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>-0.1406608243777576</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>0.100786433163774</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>-0.1470890842279522</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0.1715855691630325</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.1911553771161312</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>-0.08022259161486719</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>-0.3154872179965899</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>-0.37563386817659</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>-0.007479263163498756</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.04671359783540194</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>-0.1561314660487535</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>-0.166915309931608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>0.03072172394820536</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>-0.0273035672071738</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>0.05980389894427397</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>0.06878353535742468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>-0.006508259590151697</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>0.00284077231157528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>-0.002914314149554297</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>-0.01653670234748227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>0.01788583078468521</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>0.009488806423010147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>0.01263446204522371</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>0.01089042766875424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>0.006920169851751718</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>0.00184892501921626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>0.009745738145422463</v>
+      </c>
+      <c r="AW72">
+        <v>0.003157254381447184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.005944842580863992</v>
       </c>
     </row>
   </sheetData>
